--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -9,10 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="990" yWindow="0" windowWidth="10785" windowHeight="2558"/>
+    <workbookView xWindow="1980" yWindow="0" windowWidth="10785" windowHeight="2558" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Notes" sheetId="1" r:id="rId1"/>
+    <sheet name="Api, Design" sheetId="2" r:id="rId2"/>
+    <sheet name="Data Structure" sheetId="3" r:id="rId3"/>
+    <sheet name="Model,Algorithm" sheetId="4" r:id="rId4"/>
+    <sheet name="Test Trading" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,6 +25,78 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+  <si>
+    <t>Github: https://github.com/ruohanliu/Gdax/</t>
+  </si>
+  <si>
+    <t>Api: https://docs.gdax.com/</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Use websocket level2 channel</t>
+  </si>
+  <si>
+    <t>Maintain a order book</t>
+  </si>
+  <si>
+    <t>Cosideration</t>
+  </si>
+  <si>
+    <t>Python SortedDict. Price as key, size as value</t>
+  </si>
+  <si>
+    <t>Is SortedDict slow?</t>
+  </si>
+  <si>
+    <t>On avaerage about 1 message per 0.1 second</t>
+  </si>
+  <si>
+    <t>Test public API for getting match data</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Public API for getting order book
+</t>
+  </si>
+  <si>
+    <t>Allow fast access to order book</t>
+  </si>
+  <si>
+    <t>At some point need to understand how much volumn and why it is traded at the price at a given time</t>
+  </si>
+  <si>
+    <t>Use websocket match channel</t>
+  </si>
+  <si>
+    <t>Record historical trading info(price, size)</t>
+  </si>
+  <si>
+    <t>New data structure derived from order book</t>
+  </si>
+  <si>
+    <t>facilitate implementing model</t>
+  </si>
+  <si>
+    <t>Compute a variaty of indices, such as RSI</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -54,8 +130,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,14 +461,873 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="40.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="4" width="36.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.9296875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="4" width="36.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.9296875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="4" width="36.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.9296875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="4" width="36.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.9296875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="0" windowWidth="10785" windowHeight="2558" activeTab="1"/>
+    <workbookView xWindow="2970" yWindow="0" windowWidth="10785" windowHeight="2558"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -28,13 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
-  <si>
-    <t>Github: https://github.com/ruohanliu/Gdax/</t>
-  </si>
-  <si>
-    <t>Api: https://docs.gdax.com/</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>Task</t>
   </si>
@@ -94,7 +88,94 @@
     <t>facilitate implementing model</t>
   </si>
   <si>
-    <t>Compute a variaty of indices, such as RSI</t>
+    <t>http://wiki.mbalib.com/wiki/%E8%83%BD%E9%87%8F%E6%BD%AE%E6%8C%87%E6%A0%87</t>
+  </si>
+  <si>
+    <t>OBV</t>
+  </si>
+  <si>
+    <t>Api</t>
+  </si>
+  <si>
+    <t>https://docs.gdax.com/</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>https://github.com/ruohanliu/Gdax/</t>
+  </si>
+  <si>
+    <t>RSI</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E5%B0%8D%E5%BC%B7%E5%BC%B1%E6%8C%87%E6%95%B8</t>
+  </si>
+  <si>
+    <t>http://www.investopedia.com/terms/o/onbalancevolume.asp</t>
+  </si>
+  <si>
+    <t>more indices</t>
+  </si>
+  <si>
+    <t>https://www.interactivebrokers.co.jp/cn/index.php?f=13549</t>
+  </si>
+  <si>
+    <t>TSI</t>
+  </si>
+  <si>
+    <t>https://tradingsim.com/blog/true-strength-index/</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Relative_strength_index</t>
+  </si>
+  <si>
+    <t>MACD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/MACD</t>
+  </si>
+  <si>
+    <t>Dictionary:interval_book
+key:interval_start_time
+value: (Bid_Price_Index,Ask_Price_Index)</t>
+  </si>
+  <si>
+    <t>Compute a variaty of indices</t>
+  </si>
+  <si>
+    <t>MACD
+Volume EMA
+RSI
+TSI
+OBV</t>
+  </si>
+  <si>
+    <t>Current using intervals: 1s, 30s, 120s</t>
+  </si>
+  <si>
+    <t>Test Private API using sandbox</t>
+  </si>
+  <si>
+    <t>Test Private API on Gdax</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>Complete the necessary functions</t>
+  </si>
+  <si>
+    <t>To be safe</t>
+  </si>
+  <si>
+    <t>Volume EMA</t>
+  </si>
+  <si>
+    <t>How to use?
+Useful?
+Time needed to take effect?
+How to normalize?</t>
   </si>
 </sst>
 </file>
@@ -461,25 +542,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="40.73046875" customWidth="1"/>
+    <col min="1" max="1" width="13.59765625" customWidth="1"/>
+    <col min="2" max="2" width="53.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -491,7 +625,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -501,64 +637,78 @@
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
@@ -710,9 +860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -722,64 +870,76 @@
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
@@ -930,9 +1090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -942,52 +1100,72 @@
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1144,19 +1322,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.45">

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27715"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruohan\Documents\Gdax\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaogu/Gdax/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="0" windowWidth="10785" windowHeight="2558"/>
+    <workbookView xWindow="2980" yWindow="460" windowWidth="25160" windowHeight="17540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,15 @@
     <sheet name="Model,Algorithm" sheetId="4" r:id="rId4"/>
     <sheet name="Test Trading" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
   <si>
     <t>Task</t>
   </si>
@@ -177,11 +183,24 @@
 Time needed to take effect?
 How to normalize?</t>
   </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>MACD, MACD and EMA_9
+test as leading indcator in 1-3 interval
+Get coefficient
+p-value
+How often correct</t>
+  </si>
+  <si>
+    <t>test interaction with volume</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -544,17 +563,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" customWidth="1"/>
-    <col min="2" max="2" width="53.3984375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -562,7 +581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -570,7 +589,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -578,7 +597,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -586,7 +605,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -597,7 +616,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -608,7 +627,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -629,13 +648,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="36.59765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.9296875" style="2" customWidth="1"/>
+    <col min="1" max="4" width="36.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -652,7 +671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -669,7 +688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -684,7 +703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
@@ -697,7 +716,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
@@ -710,140 +729,140 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -862,13 +881,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="36.59765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.9296875" style="2" customWidth="1"/>
+    <col min="1" max="4" width="36.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -885,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -900,7 +919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -911,7 +930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -928,7 +947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
@@ -941,140 +960,140 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1090,15 +1109,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="36.59765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.9296875" style="2" customWidth="1"/>
+    <col min="1" max="4" width="36.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1115,7 +1136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -1123,10 +1144,14 @@
         <v>45</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="D2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -1135,9 +1160,11 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="E3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -1146,9 +1173,11 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="E4" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>44</v>
       </c>
@@ -1156,10 +1185,14 @@
         <v>45</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="D5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1170,133 +1203,133 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1314,13 +1347,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="36.59765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.9296875" style="2" customWidth="1"/>
+    <col min="1" max="4" width="36.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1337,168 +1370,168 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27715"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaogu/Gdax/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruohan\Documents\Gdax\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="460" windowWidth="25160" windowHeight="17540" activeTab="3"/>
+    <workbookView xWindow="3953" yWindow="458" windowWidth="25163" windowHeight="17543"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -18,23 +18,23 @@
     <sheet name="Model,Algorithm" sheetId="4" r:id="rId4"/>
     <sheet name="Test Trading" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
   <si>
     <t>Task</t>
   </si>
@@ -196,11 +196,17 @@
   <si>
     <t>test interaction with volume</t>
   </si>
+  <si>
+    <t>https://fork.lol/pow/hashrate</t>
+  </si>
+  <si>
+    <t>HashPower</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -563,17 +569,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="2" max="2" width="53.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -581,7 +587,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -589,7 +595,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -597,7 +611,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -605,7 +619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -616,7 +630,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -627,7 +641,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -648,13 +662,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="4" width="36.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="16" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -671,7 +685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -688,7 +702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -703,7 +717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
@@ -716,7 +730,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
@@ -729,140 +743,140 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -881,13 +895,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="4" width="36.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="16" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -904,7 +918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -919,7 +933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -930,7 +944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -947,7 +961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
@@ -960,140 +974,140 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1109,17 +1123,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="4" width="36.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="16" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1136,7 +1150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="59" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -1151,7 +1165,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -1164,7 +1178,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -1177,7 +1191,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>44</v>
       </c>
@@ -1192,7 +1206,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1203,133 +1217,133 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1347,13 +1361,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="4" width="36.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="16" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1370,168 +1384,168 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
